--- a/dtpu_configurations/only_integer8/50mhz/mxu_22x22/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/50mhz/mxu_22x22/utilization.xlsx
@@ -154,16 +154,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>57.81578826904297</v>
+        <v>71.7650375366211</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>7.005747318267822</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>30.963346481323242</v>
+        <v>40.55263137817383</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>35.0</v>
+        <v>57.85714340209961</v>
       </c>
       <c r="F2" t="n" s="4">
         <v>100.0</v>
@@ -172,7 +172,7 @@
         <v>8.0</v>
       </c>
       <c r="H2" t="n" s="4">
-        <v>3.125</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>
